--- a/medicine/Maladie à coronavirus 2019/Prevent_Senior/Prevent_Senior.xlsx
+++ b/medicine/Maladie à coronavirus 2019/Prevent_Senior/Prevent_Senior.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Prevent Senior est une entreprise brésilienne active dans le domaine de la santé, fondée en 1997 à São Paulo. Elle est spécialisée dans les soins médicaux aux personnes âgées.
 Em mars 2020, ce réseau de cliniques a lancé une étude sur l'utilisation de l'hydroxychloroquine contre la maladie à coronavirus 2019. 
-À la suite de décès de certains patients lors de cette étude et en raison de plusieurs manquements graves à l'éthique, le Sénat du Brésil a mis en place une commission d’enquête parlementaire, la CEI da Prevent Senior (pt)[1],[2].
+À la suite de décès de certains patients lors de cette étude et en raison de plusieurs manquements graves à l'éthique, le Sénat du Brésil a mis en place une commission d’enquête parlementaire, la CEI da Prevent Senior (pt),.
 </t>
         </is>
       </c>
